--- a/data/case1/14/P1_13.xlsx
+++ b/data/case1/14/P1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.061492977720249087</v>
+        <v>0.065182100734830328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999994804349512</v>
+        <v>-0.0099999994890822563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999485919119</v>
+        <v>-0.0089999994932075111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399110561717222</v>
+        <v>0.28399311920450998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995002302242</v>
+        <v>-0.0059999995040236342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999994807036217</v>
+        <v>-0.0059999994873400908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999384099354</v>
+        <v>-0.019999999410865499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01999999937621233</v>
+        <v>-0.019999999406985935</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999994607311535</v>
+        <v>-0.0059999994782229393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999994519444044</v>
+        <v>0.026510288155520811</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0032293584763465333</v>
+        <v>-0.0044999994821957046</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999994483139751</v>
+        <v>-0.0059999994729649231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999999438740744</v>
+        <v>-0.0059999994656347866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999395477801</v>
+        <v>-0.011999999431347774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.011373860657185375</v>
+        <v>-0.0059999994620341113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994316131122</v>
+        <v>-0.0059999994606236839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994292434522</v>
+        <v>-0.0059999994587425221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994084530854</v>
+        <v>-0.0089999994423592966</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999994869613964</v>
+        <v>-0.0089999994942346895</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999994823077856</v>
+        <v>-0.0089999994901948099</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999994816301054</v>
+        <v>-0.0089999994896521329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999994810892048</v>
+        <v>-0.0089999994893625868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999994815368467</v>
+        <v>-0.0089999994895384461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999251535414</v>
+        <v>-0.041999999304938918</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999247277486</v>
+        <v>-0.041999999301569169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999994793571432</v>
+        <v>-0.0059999994857271588</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999994775186138</v>
+        <v>-0.0059999994834747383</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999994704593718</v>
+        <v>-0.005999999472202866</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.026735788967037877</v>
+        <v>-0.022791407705152977</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.033786396749508452</v>
+        <v>-0.024256872543955588</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999395707064</v>
+        <v>-0.014999999408278342</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999354542886</v>
+        <v>-0.020999999375437284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994551809266</v>
+        <v>-0.0059999994557982106</v>
       </c>
     </row>
   </sheetData>
